--- a/excel test/my_apps - OK.xlsx
+++ b/excel test/my_apps - OK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_F25DC773A252ABEACE02ECCC3B9B76565BDE58A0" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3E3D9184-07EE-4682-99AA-671DED09D17D}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="11_F25DC773A252ABEACE02ECCC3B9B76565BDE58A0" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C8FB354C-2355-4A4D-87DC-F9E74849EABE}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,17 +14,24 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="162913" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>cd([testpath, '\..\files\apps\financial\value_at_risk'])</t>
   </si>
@@ -102,6 +109,124 @@
   </si>
   <si>
     <t>% Historical 99% confidence</t>
+  </si>
+  <si>
+    <t>sp500 = equity('USD', 'IBM')
+ftse1 = equity('GBP', 'GOOG')
+cac40 = equity('EUR', 'AMZN')
+dax30 = equity('EUR', 'YHOO')
+c = struct
+c.sp500 = {sp500, 0.25}
+c.ftse1 = {ftse1, 0.25}
+c.cac40 = {cac40, 0.25}
+c.dax30 = {dax30, 0.25}
+pf = portfolio('USD', c)
+ve = varengine(datenum('04/24/2019'), '50Y', '10D', 1)
+ve.riskfactors = getriskfactors(pf)
+ve.weights = [1.8 2.2 3.6 5.2 2 7]'
+ve.returns = readtable('carol-IV.2.15_total.dat')
+pvar_total = pvar(pf, ve, false)
+nf = nf + ~isequal(round(pvar_total, 5), 1.47493)</t>
+  </si>
+  <si>
+    <t>sp500 = equity('USD', 'IBM')
+ftse1 = equity('GBP', 'GOOG')
+cac40 = equity('EUR', 'AMZN')
+dax30 = equity('EUR', 'YHOO')
+c = struct
+c.sp500 = {sp500, 0.25}
+c.ftse1 = {ftse1, 0.25}
+c.cac40 = {cac40, 0.25}
+c.dax30 = {dax30, 0.25}
+pf = portfolio('USD', c)
+ve = varengine(datenum('04/24/2019'), '50Y', '10D', 1)
+ve.riskfactors = {'IBM', 'GOOG', 'AMZN', 'YHOO'}'
+ve.weights = [1.8 2.2 3.6 5.2]'
+ve.returns = readtable('carol-IV.2.15_equity.dat')
+pvar_equity = pvar(pf, ve, false)
+nf = nf + ~isequal(round(pvar_equity, 5), 1.32275)</t>
+  </si>
+  <si>
+    <t>sp500 = equity('USD', 'IBM')
+ftse1 = equity('GBP', 'GOOG')
+c = struct
+c.sp500 = {sp500, 0.5}
+c.ftse1 = {ftse1, 0.5}
+pf = portfolio('USD', c)
+ve = varengine(datenum('04/24/2019'), '50Y', '10D', 1)
+ve.riskfactors = {'IBM', 'GOOG'}'
+ve.weights = [2 7]'
+ve.returns = readtable('carol-IV.2.15_fx.dat')
+pvar_fx = pvar(pf, ve, false)
+nf = nf + ~isequal(round(pvar_fx, 6), 0.409382)</t>
+  </si>
+  <si>
+    <t>sp500 = equity('USD', 'IBM')
+ftse1 = equity('GBP', 'GOOG')
+cac40 = equity('EUR', 'AMZN')
+dax30 = equity('EUR', 'YHOO')
+c = struct
+c.sp500 = {sp500, 0.25}
+c.ftse1 = {ftse1, 0.25}
+c.cac40 = {cac40, 0.25}
+c.dax30 = {dax30, 0.25}
+pf = portfolio('USD', c)
+ve = varengine(datenum('04/24/2019'), '50Y', '10D', 1)
+ve.riskfactors = getriskfactors(pf)
+ve.weights = [1.8 2.2 3.6 5.2 2 7]'
+ve.returns = readtable('carol-IV.2.15_total.dat')
+hvar_total = hvar(pf, ve, false)
+nf = nf + ~isequal(round(hvar_total, 5), 1.47147)</t>
+  </si>
+  <si>
+    <t>sp500 = equity('USD', 'IBM')
+ftse1 = equity('GBP', 'GOOG')
+cac40 = equity('EUR', 'AMZN')
+dax30 = equity('EUR', 'YHOO')
+c = struct
+c.sp500 = {sp500, 0.25}
+c.ftse1 = {ftse1, 0.25}
+c.cac40 = {cac40, 0.25}
+c.dax30 = {dax30, 0.25}
+pf = portfolio('USD', c)
+ve = varengine(datenum('04/24/2019'), '50Y', '10D', 1)
+ve.riskfactors = {'IBM', 'GOOG', 'AMZN', 'YHOO'}'
+ve.weights = [1.8 2.2 3.6 5.2]'
+ve.returns = readtable('carol-IV.2.15_equity.dat')
+hvar_equity = hvar(pf, ve, false)
+nf = nf + ~isequal(round(hvar_equity, 5), 1.33298)</t>
+  </si>
+  <si>
+    <t>sp500 = equity('USD', 'IBM')
+ftse1 = equity('GBP', 'GOOG')
+c = struct
+c.sp500 = {sp500, 0.5}
+c.ftse1 = {ftse1, 0.5}
+pf = portfolio('USD', c)
+ve = varengine(datenum('04/24/2019'), '50Y', '10D', 1)
+ve.riskfactors = {'IBM', 'GOOG'}'
+ve.weights = [2 7]'
+ve.returns = readtable('carol-IV.2.15_fx.dat')
+hvar_fx = hvar(pf, ve, false)
+nf = nf + ~isequal(round(hvar_fx, 6), 0.410243)</t>
+  </si>
+  <si>
+    <t>% Total - Parametric VaR based in Carol Alexander example IV.2.13</t>
+  </si>
+  <si>
+    <t>% Equities - Parametric VaR based in Carol Alexander example IV.2.14</t>
+  </si>
+  <si>
+    <t>% FX - Parametric VaR based in Carol Alexander example IV.2.15</t>
+  </si>
+  <si>
+    <t>% Total - Histotorical VaR based in Carol Alexander example IV.2.16</t>
+  </si>
+  <si>
+    <t>% Equities - Histotorical VaR based in Carol Alexander example IV.2.17</t>
+  </si>
+  <si>
+    <t>% FX - Histotorical VaR based in Carol Alexander example IV.2.17</t>
   </si>
 </sst>
 </file>
@@ -191,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -207,6 +332,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,18 +670,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029C0386-C80B-4048-B42D-534DCB1EE81F}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="82.28515625" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="63.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -585,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="6" t="str">
-        <f ca="1">[1]!m(D2)</f>
+        <f>[1]!m(D2)</f>
         <v>[sp500:1x1 struct]
 [c:1x1 struct]
 [pf:1x1 struct]
@@ -596,7 +724,7 @@
 [historical95:1966x1 double]
 [historical99:1966x1 double]
 [parametric95:1966x1 double]
-[parametric99:1966x1 double] 0.338000s</v>
+[parametric99:1966x1 double] 0.571000s</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="156" customHeight="1" x14ac:dyDescent="0.25">
@@ -614,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="6" t="str">
-        <f ca="1">[1]!m(D3)</f>
+        <f>[1]!m(D3)</f>
         <v>[sp500:1x1 struct]
 [c:1x1 struct]
 [pf:1x1 struct]
@@ -625,7 +753,7 @@
 [historical95:1966x1 double]
 [historical99:1966x1 double]
 [parametric95:1966x1 double]
-[parametric99:1966x1 double] 0.344000s</v>
+[parametric99:1966x1 double] 0.342000s</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.25">
@@ -643,7 +771,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="str">
-        <f ca="1">[1]!m(D4)</f>
+        <f>[1]!m(D4)</f>
         <v>[sp500:1x1 struct]
 [c:1x1 struct]
 [pf:1x1 struct]
@@ -654,7 +782,7 @@
 [historical95:1966x1 double]
 [historical99:1966x1 double]
 [parametric95:1966x1 double]
-[parametric99:1966x1 double] 0.469000s</v>
+[parametric99:1966x1 double] 0.507000s</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -672,7 +800,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="6" t="str">
-        <f ca="1">[1]!m(D5)</f>
+        <f>[1]!m(D5)</f>
         <v>[sp500:1x1 struct]
 [c:1x1 struct]
 [pf:1x1 struct]
@@ -683,7 +811,165 @@
 [historical95:1966x1 double]
 [historical99:1966x1 double]
 [parametric95:1966x1 double]
-[parametric99:1966x1 double] 0.460000s</v>
+[parametric99:1966x1 double] 0.469000s</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f>[1]!m(D6)</f>
+        <v>[sp500:1x1 struct]
+[ftse1:1x1 struct]
+[cac40:1x1 struct]
+[dax30:1x1 struct]
+[c:1x1 struct]
+[pf:1x1 struct]
+[ve:1x1 struct]
+[pvar_total:1.47493]
+[nf:0x0 double] 0.598000s</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="str">
+        <f>[1]!m(D7)</f>
+        <v>[sp500:1x1 struct]
+[ftse1:1x1 struct]
+[cac40:1x1 struct]
+[dax30:1x1 struct]
+[c:1x1 struct]
+[pf:1x1 struct]
+[ve:1x1 struct]
+[pvar_equity:1.32275]
+[nf:0] 0.573000s</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6" t="str">
+        <f>[1]!m(D8)</f>
+        <v>[sp500:1x1 struct]
+[ftse1:1x1 struct]
+[c:1x1 struct]
+[pf:1x1 struct]
+[ve:1x1 struct]
+[pvar_fx:0.409382]
+[nf:0] 0.314000s</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="6" t="str">
+        <f ca="1">[1]!m(D9)</f>
+        <v>[sp500:1x1 struct]
+[ftse1:1x1 struct]
+[cac40:1x1 struct]
+[dax30:1x1 struct]
+[c:1x1 struct]
+[pf:1x1 struct]
+[ve:1x1 struct]
+[hvar_total:1.47147]
+[nf:0] 0.605000s</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f ca="1">[1]!m(D10)</f>
+        <v>[sp500:1x1 struct]
+[ftse1:1x1 struct]
+[cac40:1x1 struct]
+[dax30:1x1 struct]
+[c:1x1 struct]
+[pf:1x1 struct]
+[ve:1x1 struct]
+[hvar_equity:1.33298]
+[nf:0] 0.576000s</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="6" t="str">
+        <f ca="1">[1]!m(D11)</f>
+        <v>[sp500:1x1 struct]
+[ftse1:1x1 struct]
+[c:1x1 struct]
+[pf:1x1 struct]
+[ve:1x1 struct]
+[hvar_fx:0.410243]
+[nf:0] 0.323000s</v>
       </c>
     </row>
   </sheetData>
